--- a/game/resultspace/FlexOil/ТР FlexOil.xlsx
+++ b/game/resultspace/FlexOil/ТР FlexOil.xlsx
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="26" t="n">
-        <v>460</v>
+        <v>688</v>
       </c>
       <c r="L11" s="26" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R11" s="28" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="26" t="n">
-        <v>576</v>
+        <v>345</v>
       </c>
       <c r="L12" s="26" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="26" t="n">
-        <v>556</v>
+        <v>425</v>
       </c>
       <c r="L13" s="26" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R13" s="28" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="26" t="n">
-        <v>682</v>
+        <v>273</v>
       </c>
       <c r="L14" s="26" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="26" t="n">
-        <v>366</v>
+        <v>610</v>
       </c>
       <c r="L15" s="26" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="26" t="n">
-        <v>379</v>
+        <v>667</v>
       </c>
       <c r="L16" s="26" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="26" t="n">
-        <v>635</v>
+        <v>510</v>
       </c>
       <c r="L17" s="26" t="inlineStr">
         <is>
@@ -1778,19 +1778,19 @@
       </c>
       <c r="M17" s="27" t="inlineStr"/>
       <c r="N17" s="27" t="n">
-        <v>28.98456382751465</v>
+        <v>40.03860473632813</v>
       </c>
       <c r="O17" s="28" t="n">
-        <v>28.98456382751465</v>
+        <v>40.03860473632813</v>
       </c>
       <c r="P17" s="27" t="n">
         <v>0</v>
       </c>
       <c r="Q17" s="27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R17" s="28" t="n">
-        <v>224.7887725830078</v>
+        <v>223.9150085449219</v>
       </c>
       <c r="S17" s="26" t="n">
         <v>104</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>557</v>
+        <v>402</v>
       </c>
       <c r="L18" s="24" t="inlineStr">
         <is>
@@ -1850,19 +1850,19 @@
       </c>
       <c r="M18" s="24" t="inlineStr"/>
       <c r="N18" s="24" t="n">
-        <v>48.57472610473633</v>
+        <v>55.46866989135742</v>
       </c>
       <c r="O18" s="24" t="n">
-        <v>48.57472610473633</v>
+        <v>55.46866989135742</v>
       </c>
       <c r="P18" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R18" s="24" t="n">
-        <v>226.196533203125</v>
+        <v>226.1971588134766</v>
       </c>
       <c r="S18" s="24" t="n">
         <v>104</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>334</v>
+        <v>686</v>
       </c>
       <c r="L19" s="24" t="inlineStr">
         <is>
@@ -1922,19 +1922,19 @@
       </c>
       <c r="M19" s="24" t="inlineStr"/>
       <c r="N19" s="24" t="n">
-        <v>125.4549331665039</v>
+        <v>200</v>
       </c>
       <c r="O19" s="24" t="n">
-        <v>125.4549331665039</v>
+        <v>200</v>
       </c>
       <c r="P19" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q19" s="24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R19" s="24" t="n">
-        <v>236.3233947753906</v>
+        <v>239.0530395507812</v>
       </c>
       <c r="S19" s="24" t="n">
         <v>104</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>628</v>
+        <v>551</v>
       </c>
       <c r="L20" s="24" t="inlineStr">
         <is>
@@ -1994,19 +1994,19 @@
       </c>
       <c r="M20" s="24" t="inlineStr"/>
       <c r="N20" s="24" t="n">
-        <v>119.6627883911133</v>
+        <v>200</v>
       </c>
       <c r="O20" s="24" t="n">
-        <v>119.6627883911133</v>
+        <v>200</v>
       </c>
       <c r="P20" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R20" s="24" t="n">
-        <v>237.0447235107422</v>
+        <v>242.9720916748047</v>
       </c>
       <c r="S20" s="24" t="n">
         <v>104</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>280</v>
+        <v>627</v>
       </c>
       <c r="L21" s="24" t="inlineStr">
         <is>
@@ -2066,19 +2066,19 @@
       </c>
       <c r="M21" s="24" t="inlineStr"/>
       <c r="N21" s="24" t="n">
-        <v>135.5832977294922</v>
+        <v>200</v>
       </c>
       <c r="O21" s="24" t="n">
-        <v>135.5832977294922</v>
+        <v>200</v>
       </c>
       <c r="P21" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q21" s="24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R21" s="24" t="n">
-        <v>239.9608001708984</v>
+        <v>241.1333465576172</v>
       </c>
       <c r="S21" s="24" t="n">
         <v>104</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>286</v>
+        <v>637</v>
       </c>
       <c r="L22" s="24" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
       </c>
       <c r="M22" s="24" t="inlineStr"/>
       <c r="N22" s="24" t="n">
-        <v>159.9972229003906</v>
+        <v>159.9976501464844</v>
       </c>
       <c r="O22" s="24" t="n">
         <v>160</v>
       </c>
       <c r="P22" s="24" t="n">
-        <v>1.734585675876587e-05</v>
+        <v>1.46914942888543e-05</v>
       </c>
       <c r="Q22" s="24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R22" s="24" t="n">
-        <v>226.3982086181641</v>
+        <v>226.136734008789</v>
       </c>
       <c r="S22" s="24" t="n">
         <v>104</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="24" t="n">
-        <v>427</v>
+        <v>291</v>
       </c>
       <c r="L23" s="24" t="inlineStr">
         <is>
@@ -2210,19 +2210,19 @@
       </c>
       <c r="M23" s="24" t="inlineStr"/>
       <c r="N23" s="24" t="n">
-        <v>136.7948913574219</v>
+        <v>160</v>
       </c>
       <c r="O23" s="24" t="n">
-        <v>136.7948913574219</v>
+        <v>160</v>
       </c>
       <c r="P23" s="24" t="n">
         <v>0</v>
       </c>
       <c r="Q23" s="24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R23" s="24" t="n">
-        <v>238.5393981933594</v>
+        <v>229.8055114746094</v>
       </c>
       <c r="S23" s="24" t="n">
         <v>104</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>242</v>
+        <v>366</v>
       </c>
       <c r="L24" s="24" t="inlineStr">
         <is>
@@ -2285,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="24" t="n">
-        <v>0.01399138756096363</v>
+        <v>0.01403873227536678</v>
       </c>
       <c r="P24" s="24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R24" s="24" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="24" t="n">
-        <v>492</v>
+        <v>341</v>
       </c>
       <c r="L25" s="24" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R25" s="24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>494</v>
+        <v>662</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2426,19 +2426,19 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>2.138342836133233e-08</v>
+        <v>4.011886309274182e-11</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02537703886628151</v>
+        <v>0.02545472234487534</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9999991192139513</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>15</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5957240462303162</v>
+        <v>55.29069900512695</v>
       </c>
       <c r="S26" t="n">
         <v>104</v>

--- a/game/resultspace/FlexOil/ТР FlexOil.xlsx
+++ b/game/resultspace/FlexOil/ТР FlexOil.xlsx
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="26" t="n">
-        <v>688</v>
+        <v>486</v>
       </c>
       <c r="L11" s="26" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R11" s="28" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="26" t="n">
-        <v>345</v>
+        <v>637</v>
       </c>
       <c r="L12" s="26" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R12" s="28" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="26" t="n">
-        <v>425</v>
+        <v>567</v>
       </c>
       <c r="L13" s="26" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R13" s="28" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="26" t="n">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="L14" s="26" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R14" s="28" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="26" t="n">
-        <v>610</v>
+        <v>408</v>
       </c>
       <c r="L15" s="26" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="26" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="L16" s="26" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R16" s="28" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="26" t="n">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="L17" s="26" t="inlineStr">
         <is>
@@ -1778,19 +1778,19 @@
       </c>
       <c r="M17" s="27" t="inlineStr"/>
       <c r="N17" s="27" t="n">
-        <v>40.03860473632813</v>
+        <v>87.02555847167969</v>
       </c>
       <c r="O17" s="28" t="n">
-        <v>40.03860473632813</v>
+        <v>87.10800170898438</v>
       </c>
       <c r="P17" s="27" t="n">
-        <v>0</v>
+        <v>0.0009464650904604543</v>
       </c>
       <c r="Q17" s="27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R17" s="28" t="n">
-        <v>223.9150085449219</v>
+        <v>226.1971588134766</v>
       </c>
       <c r="S17" s="26" t="n">
         <v>104</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="24" t="n">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="L18" s="24" t="inlineStr">
         <is>
@@ -1850,13 +1850,13 @@
       </c>
       <c r="M18" s="24" t="inlineStr"/>
       <c r="N18" s="24" t="n">
-        <v>55.46866989135742</v>
+        <v>41.28292083740234</v>
       </c>
       <c r="O18" s="24" t="n">
-        <v>55.46866989135742</v>
+        <v>41.32099533081055</v>
       </c>
       <c r="P18" s="24" t="n">
-        <v>0</v>
+        <v>0.0009214192539863874</v>
       </c>
       <c r="Q18" s="24" t="n">
         <v>14</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="24" t="n">
-        <v>686</v>
+        <v>626</v>
       </c>
       <c r="L19" s="24" t="inlineStr">
         <is>
@@ -1922,19 +1922,19 @@
       </c>
       <c r="M19" s="24" t="inlineStr"/>
       <c r="N19" s="24" t="n">
-        <v>200</v>
+        <v>199.8118438720703</v>
       </c>
       <c r="O19" s="24" t="n">
         <v>200</v>
       </c>
       <c r="P19" s="24" t="n">
-        <v>0</v>
+        <v>0.0009407885372638702</v>
       </c>
       <c r="Q19" s="24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R19" s="24" t="n">
-        <v>239.0530395507812</v>
+        <v>228.685775756836</v>
       </c>
       <c r="S19" s="24" t="n">
         <v>104</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="24" t="n">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="L20" s="24" t="inlineStr">
         <is>
@@ -1994,19 +1994,19 @@
       </c>
       <c r="M20" s="24" t="inlineStr"/>
       <c r="N20" s="24" t="n">
-        <v>200</v>
+        <v>199.8113708496094</v>
       </c>
       <c r="O20" s="24" t="n">
         <v>200</v>
       </c>
       <c r="P20" s="24" t="n">
-        <v>0</v>
+        <v>0.0009431689977645874</v>
       </c>
       <c r="Q20" s="24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R20" s="24" t="n">
-        <v>242.9720916748047</v>
+        <v>230.6572723388672</v>
       </c>
       <c r="S20" s="24" t="n">
         <v>104</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="24" t="n">
-        <v>627</v>
+        <v>676</v>
       </c>
       <c r="L21" s="24" t="inlineStr">
         <is>
@@ -2066,19 +2066,19 @@
       </c>
       <c r="M21" s="24" t="inlineStr"/>
       <c r="N21" s="24" t="n">
-        <v>200</v>
+        <v>199.811538696289</v>
       </c>
       <c r="O21" s="24" t="n">
         <v>200</v>
       </c>
       <c r="P21" s="24" t="n">
-        <v>0</v>
+        <v>0.0009422938525676726</v>
       </c>
       <c r="Q21" s="24" t="n">
         <v>12</v>
       </c>
       <c r="R21" s="24" t="n">
-        <v>241.1333465576172</v>
+        <v>229.2595520019531</v>
       </c>
       <c r="S21" s="24" t="n">
         <v>104</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="24" t="n">
-        <v>637</v>
+        <v>423</v>
       </c>
       <c r="L22" s="24" t="inlineStr">
         <is>
@@ -2138,19 +2138,19 @@
       </c>
       <c r="M22" s="24" t="inlineStr"/>
       <c r="N22" s="24" t="n">
-        <v>159.9976501464844</v>
+        <v>59.40430450439453</v>
       </c>
       <c r="O22" s="24" t="n">
         <v>160</v>
       </c>
       <c r="P22" s="24" t="n">
-        <v>1.46914942888543e-05</v>
+        <v>0.6287230968475342</v>
       </c>
       <c r="Q22" s="24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R22" s="24" t="n">
-        <v>226.136734008789</v>
+        <v>226.1971588134766</v>
       </c>
       <c r="S22" s="24" t="n">
         <v>104</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="24" t="n">
-        <v>291</v>
+        <v>652</v>
       </c>
       <c r="L23" s="24" t="inlineStr">
         <is>
@@ -2210,19 +2210,19 @@
       </c>
       <c r="M23" s="24" t="inlineStr"/>
       <c r="N23" s="24" t="n">
-        <v>160</v>
+        <v>159.8470458984375</v>
       </c>
       <c r="O23" s="24" t="n">
         <v>160</v>
       </c>
       <c r="P23" s="24" t="n">
-        <v>0</v>
+        <v>0.0009559249505400657</v>
       </c>
       <c r="Q23" s="24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R23" s="24" t="n">
-        <v>229.8055114746094</v>
+        <v>231.6221923828125</v>
       </c>
       <c r="S23" s="24" t="n">
         <v>104</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="24" t="n">
-        <v>366</v>
+        <v>694</v>
       </c>
       <c r="L24" s="24" t="inlineStr">
         <is>
@@ -2285,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="24" t="n">
-        <v>0.01403873227536678</v>
+        <v>0</v>
       </c>
       <c r="P24" s="24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R24" s="24" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="24" t="n">
-        <v>341</v>
+        <v>579</v>
       </c>
       <c r="L25" s="24" t="inlineStr">
         <is>
@@ -2354,19 +2354,19 @@
       </c>
       <c r="M25" s="24" t="inlineStr"/>
       <c r="N25" s="24" t="n">
-        <v>0</v>
+        <v>19.48560523986816</v>
       </c>
       <c r="O25" s="24" t="n">
-        <v>0.02016769722104073</v>
+        <v>858.5883178710938</v>
       </c>
       <c r="P25" s="24" t="n">
-        <v>1</v>
+        <v>0.977305077069485</v>
       </c>
       <c r="Q25" s="24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R25" s="24" t="n">
-        <v>0</v>
+        <v>226.1986389160156</v>
       </c>
       <c r="S25" s="24" t="n">
         <v>104</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>662</v>
+        <v>485</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2426,19 +2426,19 @@
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>4.011886309274182e-11</v>
+        <v>23.99658012390137</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02545472234487534</v>
+        <v>1298.350708007812</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.9815176424341692</v>
       </c>
       <c r="Q26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R26" t="n">
-        <v>55.29069900512695</v>
+        <v>226.2055511474609</v>
       </c>
       <c r="S26" t="n">
         <v>104</v>
